--- a/Docs/Dicionário de dados.xlsx
+++ b/Docs/Dicionário de dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocaz\Desktop\projecto-final\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B74CDC-AA6F-4BDC-9F7D-E7E133777E72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB636EE-8E0A-4177-BB94-AE5F3F97CFAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="5175" windowWidth="15375" windowHeight="7995" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
+    <workbookView xWindow="13425" yWindow="8205" windowWidth="15375" windowHeight="7995" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
   <si>
     <t>Entidade:</t>
   </si>
@@ -177,12 +177,6 @@
     <t>id_formulario</t>
   </si>
   <si>
-    <t>Entrevistador</t>
-  </si>
-  <si>
-    <t>Nome do entrevistador</t>
-  </si>
-  <si>
     <t>100 dígitos</t>
   </si>
   <si>
@@ -321,10 +315,22 @@
     <t>Campo para escolher se o candidato foi Aceite, Aceite com Reservas, ou Não Aceite</t>
   </si>
   <si>
-    <t>Avaliação</t>
-  </si>
-  <si>
     <t>Campo para preencher com valores de 1 a 3 apenas para os candidatos Aceites</t>
+  </si>
+  <si>
+    <t>id_entrevista</t>
+  </si>
+  <si>
+    <t>Número único usado para identificar a entrevista</t>
+  </si>
+  <si>
+    <t>Número único usado para identificar o formulário</t>
+  </si>
+  <si>
+    <t>Vem já preenchido, Chave estrangeira</t>
+  </si>
+  <si>
+    <t>Avaliação / Parecer-final</t>
   </si>
 </sst>
 </file>
@@ -340,6 +346,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -347,8 +354,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -455,86 +462,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,18 +873,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB70AEAC-8C8E-48A3-B572-692385E33AC1}">
   <dimension ref="B1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -871,945 +892,974 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="17"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="19"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="17"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="17"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="17"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="15" t="s">
+      <c r="E31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="17"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="F36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="15" t="s">
+      <c r="E37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="18"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="17"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="17" t="s">
+      <c r="F42" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="18"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="17"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="14" t="s">
+      <c r="D48" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="23"/>
+      <c r="C49" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="14" t="s">
+      <c r="D50" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="D52" s="19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="11" t="s">
+      <c r="E52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="G52" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="11" t="s">
+    </row>
+    <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D53" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="11" t="s">
+      <c r="E53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="16" t="s">
+      <c r="D54" s="19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="11" t="s">
+      <c r="E54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D55" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="11" t="s">
+      <c r="E55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D56" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="11" t="s">
+      <c r="E56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="E57" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C57" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="26" t="s">
+      <c r="D58" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C58" s="11" t="s">
+      <c r="E58" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D59" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C59" s="11" t="s">
+      <c r="E59" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D60" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C60" s="11" t="s">
+      <c r="E60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D61" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C61" s="11" t="s">
+      <c r="E61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D62" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C62" s="11" t="s">
+      <c r="E62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="2:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="23"/>
+      <c r="C63" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D63" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C63" s="28" t="s">
+      <c r="D64" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D65" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="G63" s="21" t="s">
+    </row>
+    <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="20" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C64" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="12" t="s">
+      <c r="E66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C65" s="11" t="s">
+      <c r="G66" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D67" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="12" t="s">
+      <c r="E68" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G65" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C66" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C67" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C68" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C69" s="11" t="s">
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="4"/>
+      <c r="C70" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C70" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C71" s="11"/>
-    </row>
-    <row r="72" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C72" s="11"/>
-    </row>
-    <row r="73" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C73" s="11"/>
-    </row>
-    <row r="74" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C74" s="11"/>
-    </row>
-    <row r="75" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C75" s="11"/>
-    </row>
-    <row r="76" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C76" s="11"/>
-    </row>
-    <row r="77" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C77" s="11"/>
-    </row>
-    <row r="78" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C78" s="11"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C78" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Docs/Dicionário de dados.xlsx
+++ b/Docs/Dicionário de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocaz\Desktop\projecto-final\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB636EE-8E0A-4177-BB94-AE5F3F97CFAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AA4113-5F1F-4AEC-AD1E-403AF4044AA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13425" yWindow="8205" windowWidth="15375" windowHeight="7995" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="204">
   <si>
     <t>Entidade:</t>
   </si>
@@ -60,9 +60,6 @@
     <t>id_genero</t>
   </si>
   <si>
-    <t>valor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Número único usado para identificar o género </t>
   </si>
   <si>
@@ -138,36 +135,6 @@
     <t>Nome do distrito</t>
   </si>
   <si>
-    <t>Curso Primeira Opção</t>
-  </si>
-  <si>
-    <t>Entidade que guarda as informações sobre o curso de primeira opção</t>
-  </si>
-  <si>
-    <t>id_curso_1a_opcao</t>
-  </si>
-  <si>
-    <t>Número único usado para identificar o curso de primeira opção</t>
-  </si>
-  <si>
-    <t>Nome do curso de primeira opção</t>
-  </si>
-  <si>
-    <t>Curso Segunda Opção</t>
-  </si>
-  <si>
-    <t>Entidade que guarda as informações sobre o curso de segunda opção</t>
-  </si>
-  <si>
-    <t>id_curso_2a_opcao</t>
-  </si>
-  <si>
-    <t>Número único usado para identificar o curso de segunda opção</t>
-  </si>
-  <si>
-    <t>Nome do curso de segunda opção</t>
-  </si>
-  <si>
     <t>Formulário</t>
   </si>
   <si>
@@ -331,6 +298,351 @@
   </si>
   <si>
     <t>Avaliação / Parecer-final</t>
+  </si>
+  <si>
+    <t>id_candidato</t>
+  </si>
+  <si>
+    <t>Número único usado para identificar o candidato</t>
+  </si>
+  <si>
+    <t>id_curso</t>
+  </si>
+  <si>
+    <t>Chave primária / Chave estrangeira</t>
+  </si>
+  <si>
+    <t>Número único usado para identificar os cursos</t>
+  </si>
+  <si>
+    <t>Curso Opção 1</t>
+  </si>
+  <si>
+    <t>Entidade que guarda as informações que relacionam o candidato com o curso de primeira opção</t>
+  </si>
+  <si>
+    <t>Curso Opção 2</t>
+  </si>
+  <si>
+    <t>Entidade que guarda as informações que relacionam o candidato com o curso de segunda opção</t>
+  </si>
+  <si>
+    <t>Valores de 1 a 3</t>
+  </si>
+  <si>
+    <t>Candidato</t>
+  </si>
+  <si>
+    <t>Entidade que guarda os dados do candidato</t>
+  </si>
+  <si>
+    <t>Chave Primária</t>
+  </si>
+  <si>
+    <t>25 dígitos</t>
+  </si>
+  <si>
+    <t>Número de identificação fiscal do candidato</t>
+  </si>
+  <si>
+    <t>9 Dígitos</t>
+  </si>
+  <si>
+    <t>NIF</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Género do candidato</t>
+  </si>
+  <si>
+    <t>10 Dígitos</t>
+  </si>
+  <si>
+    <t>Valores possíveis: Masculino ou Feminino</t>
+  </si>
+  <si>
+    <t>Data_nascimento</t>
+  </si>
+  <si>
+    <t>Data de Nascimento do candidato</t>
+  </si>
+  <si>
+    <t>Inscricao_estado</t>
+  </si>
+  <si>
+    <t>Estado da inscrição do candidato</t>
+  </si>
+  <si>
+    <t>Data_candidatura</t>
+  </si>
+  <si>
+    <t>Data de candidatura do candidato</t>
+  </si>
+  <si>
+    <t>Ano_candidatura</t>
+  </si>
+  <si>
+    <t>Ano de candidatura do candidato</t>
+  </si>
+  <si>
+    <t>4 Dígitos</t>
+  </si>
+  <si>
+    <t>Origem</t>
+  </si>
+  <si>
+    <t>Situacao_desemprego</t>
+  </si>
+  <si>
+    <t>Situação de desemprego do candidato</t>
+  </si>
+  <si>
+    <t>Data_anulacao</t>
+  </si>
+  <si>
+    <t>Habilitacoes_Literarias</t>
+  </si>
+  <si>
+    <t>Habilitações literárias do candidato</t>
+  </si>
+  <si>
+    <t>Chave Estrangeira</t>
+  </si>
+  <si>
+    <t>Escola_proveniencia</t>
+  </si>
+  <si>
+    <t>Escola de proveniência do candidato</t>
+  </si>
+  <si>
+    <t>Contacto_telefonico</t>
+  </si>
+  <si>
+    <t>Contacto telefónico do candidato</t>
+  </si>
+  <si>
+    <t>Distrito a que pertence o candidato</t>
+  </si>
+  <si>
+    <t>Freguesia</t>
+  </si>
+  <si>
+    <t>Freguesia a que pertence o candidato</t>
+  </si>
+  <si>
+    <t>Localidade</t>
+  </si>
+  <si>
+    <t>Localidade a que pertence o candidato</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Email do candidato</t>
+  </si>
+  <si>
+    <t>50 Dígitos</t>
+  </si>
+  <si>
+    <t>Curso_Opcao_1</t>
+  </si>
+  <si>
+    <t>Curso_Opcao_2</t>
+  </si>
+  <si>
+    <t>Curso a que o candidato concorre como primeira opção</t>
+  </si>
+  <si>
+    <t>Curso a que o candidato concorre como segunda opção</t>
+  </si>
+  <si>
+    <t>Turma_rs</t>
+  </si>
+  <si>
+    <t>Turma a que o candidato é alocado no momento da inscrição</t>
+  </si>
+  <si>
+    <t>url_ficha_inscricao</t>
+  </si>
+  <si>
+    <t>Url para o ficheiro da ficha de inscrição do candidato</t>
+  </si>
+  <si>
+    <t>url_cartao_cidadao</t>
+  </si>
+  <si>
+    <t>Url para o ficheiro do cartão de cidadão do candidato</t>
+  </si>
+  <si>
+    <t>url_certificado_habilitacoes</t>
+  </si>
+  <si>
+    <t>Url para o ficheiro do certificado de habilitações do candidato</t>
+  </si>
+  <si>
+    <t>url_curriculo</t>
+  </si>
+  <si>
+    <t>Url para o ficheiro do currículo do candidato</t>
+  </si>
+  <si>
+    <t>url_registo_criminal</t>
+  </si>
+  <si>
+    <t>Url para o ficheiro do registo criminal do candidato</t>
+  </si>
+  <si>
+    <t>url_declaracao_emprego</t>
+  </si>
+  <si>
+    <t>Url para o ficheiro da declaração de situação de desemprego do candidato</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>apto</t>
+  </si>
+  <si>
+    <t>categorização</t>
+  </si>
+  <si>
+    <t>data_assessment</t>
+  </si>
+  <si>
+    <t>Observações relativas ao candidato</t>
+  </si>
+  <si>
+    <t>Entidade que guarda as informações dos cursos disponibilzados</t>
+  </si>
+  <si>
+    <t>Data de início do curso</t>
+  </si>
+  <si>
+    <t>Nome do curso</t>
+  </si>
+  <si>
+    <t>Prova</t>
+  </si>
+  <si>
+    <t>id_prova</t>
+  </si>
+  <si>
+    <t>Número único usado para identificar a prova (?)</t>
+  </si>
+  <si>
+    <t>Data de realização da prova</t>
+  </si>
+  <si>
+    <t>Resultado da prova</t>
+  </si>
+  <si>
+    <t>Número único usado para identificar o candidato que realiza a prova</t>
+  </si>
+  <si>
+    <t>Inventário Vocacional</t>
+  </si>
+  <si>
+    <t>id_inventario</t>
+  </si>
+  <si>
+    <t>Número único usado para identificar o inventário vocacional</t>
+  </si>
+  <si>
+    <t>Data de realização do inventário vocacional</t>
+  </si>
+  <si>
+    <t>Testes Psicotécnicos</t>
+  </si>
+  <si>
+    <t>Entidade que guarda as informações sobre os testes psicotécnicos realizados pelo candidato</t>
+  </si>
+  <si>
+    <t>Entidade que guarda as informações sobre o inventário vocacional realizado pelo candidato</t>
+  </si>
+  <si>
+    <t>Entidade que guarda as informações sobre a prova realizada pelo candidato</t>
+  </si>
+  <si>
+    <t>id_teste_psicotecnico</t>
+  </si>
+  <si>
+    <t>Data de realização dos testes psicotecnicos</t>
+  </si>
+  <si>
+    <t>Assistente de Formação</t>
+  </si>
+  <si>
+    <t>Entidade que guarda as informações sobre as assistentes de formação</t>
+  </si>
+  <si>
+    <t>id_assistente_formacao</t>
+  </si>
+  <si>
+    <t>Número único usado para identificar a assistente de formação</t>
+  </si>
+  <si>
+    <t>Nome da assistente de formação</t>
+  </si>
+  <si>
+    <t>Entidade que guarda as informações sobre a turma a que o candidato é alocado no momento da inscrição</t>
+  </si>
+  <si>
+    <t>id_turma_rs</t>
+  </si>
+  <si>
+    <t>Chave estrangeira</t>
+  </si>
+  <si>
+    <t>id_estado_turma</t>
+  </si>
+  <si>
+    <t>Número único usado para identificar o estado da turma</t>
+  </si>
+  <si>
+    <t>Estado da Turma</t>
+  </si>
+  <si>
+    <t>Entidade que guarda as informações sobre o estado das turmas</t>
+  </si>
+  <si>
+    <t>Nome do estado da turma</t>
+  </si>
+  <si>
+    <t>Entrevistador</t>
+  </si>
+  <si>
+    <t>Entidade que guarda as informações sobre o entrevistador</t>
+  </si>
+  <si>
+    <t>id_entrevistador</t>
+  </si>
+  <si>
+    <t>Nome do entrevistador</t>
+  </si>
+  <si>
+    <t>Número único usado para identificar o entrevistador</t>
+  </si>
+  <si>
+    <t>Entrevista_Entrevistador</t>
+  </si>
+  <si>
+    <t>Entidade que guarda as informações sobre as relações entre a entrevista e o entrevistador</t>
+  </si>
+  <si>
+    <t>Chave primária/Chave estrangeira</t>
+  </si>
+  <si>
+    <t>Entrevista</t>
+  </si>
+  <si>
+    <t>Entidade que guarda as informações sobre a entrevista</t>
+  </si>
+  <si>
+    <t>Data de realização da entrevista</t>
   </si>
 </sst>
 </file>
@@ -362,12 +674,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -462,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -518,44 +836,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,16 +1233,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB70AEAC-8C8E-48A3-B572-692385E33AC1}">
-  <dimension ref="B1:G78"/>
+  <dimension ref="B1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
@@ -892,15 +1254,15 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -924,7 +1286,7 @@
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -934,31 +1296,31 @@
         <v>8</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="G6" s="13"/>
     </row>
@@ -967,13 +1329,13 @@
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="8"/>
       <c r="G9" s="14"/>
     </row>
@@ -999,41 +1361,41 @@
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="G13" s="13"/>
     </row>
@@ -1042,13 +1404,13 @@
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="8"/>
       <c r="G15" s="14"/>
     </row>
@@ -1074,41 +1436,41 @@
       <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="G19" s="13"/>
     </row>
@@ -1118,14 +1480,14 @@
         <v>0</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -1137,53 +1499,53 @@
     </row>
     <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E24" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G25" s="13"/>
     </row>
@@ -1193,14 +1555,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -1224,41 +1586,41 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E30" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="G31" s="13"/>
     </row>
@@ -1268,14 +1630,14 @@
         <v>0</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -1299,43 +1661,45 @@
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="21"/>
+      <c r="C36" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="5" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1343,14 +1707,14 @@
         <v>0</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
@@ -1374,58 +1738,67 @@
       <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
-      <c r="C42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>93</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="34"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
     <row r="45" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+      <c r="D45" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
@@ -1449,423 +1822,1857 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="30" t="s">
+      <c r="G47" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
-      <c r="C48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="23"/>
-      <c r="C49" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="C48" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="27"/>
+    </row>
+    <row r="50" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="36"/>
+    </row>
+    <row r="51" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="34"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
-      <c r="C53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>61</v>
-      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="12"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="21"/>
+      <c r="C56" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="57" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="3" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="59" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="G60" s="12"/>
     </row>
     <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="2:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="23"/>
-      <c r="C63" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G63" s="29" t="s">
-        <v>86</v>
-      </c>
+    <row r="63" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>86</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>86</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="3" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="29" t="s">
-        <v>86</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>91</v>
+        <v>64</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G68" s="12"/>
     </row>
     <row r="69" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>93</v>
+        <v>66</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="E69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="2:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="21"/>
+      <c r="C70" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="4"/>
-      <c r="C70" s="5" t="s">
+      <c r="G71" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+      <c r="C77" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="71" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C77" s="6"/>
-    </row>
-    <row r="78" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C78" s="6"/>
+      <c r="D79" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="33"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="21"/>
+      <c r="C83" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G83" s="25"/>
+    </row>
+    <row r="84" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+      <c r="C84" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G84" s="26"/>
+    </row>
+    <row r="85" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B85" s="21"/>
+      <c r="C85" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+      <c r="C86" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G86" s="26"/>
+    </row>
+    <row r="87" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+      <c r="C87" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="39"/>
+    </row>
+    <row r="88" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+      <c r="C88" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+      <c r="C89" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="40"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="39"/>
+    </row>
+    <row r="91" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+      <c r="C91" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="38"/>
+      <c r="G91" s="39"/>
+    </row>
+    <row r="92" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+      <c r="C92" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" s="40"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="39"/>
+    </row>
+    <row r="93" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+      <c r="C93" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+      <c r="C94" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+      <c r="C95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+      <c r="C96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="21"/>
+      <c r="C97" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97" s="27"/>
+    </row>
+    <row r="98" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
+      <c r="C98" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" s="27"/>
+    </row>
+    <row r="99" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B99" s="2"/>
+      <c r="C99" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G99" s="27"/>
+    </row>
+    <row r="100" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B100" s="2"/>
+      <c r="C100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G100" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+      <c r="C101" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+      <c r="C102" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G102" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+      <c r="C103" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+      <c r="C104" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+      <c r="C105" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+      <c r="C106" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+      <c r="C107" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+      <c r="C109" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D109" s="40"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="39"/>
+    </row>
+    <row r="110" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+      <c r="C110" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110" s="40"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="39"/>
+    </row>
+    <row r="111" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+      <c r="C111" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D111" s="40"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="39"/>
+    </row>
+    <row r="112" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+      <c r="C112" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D112" s="40"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="39"/>
+    </row>
+    <row r="113" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="4"/>
+      <c r="C113" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="33"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B117" s="2"/>
+      <c r="C117" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+      <c r="C118" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G118" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+      <c r="C119" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G119" s="27"/>
+    </row>
+    <row r="120" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+      <c r="C120" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G120" s="27"/>
+    </row>
+    <row r="121" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="4"/>
+      <c r="C121" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D123" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="33"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="2"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B125" s="2"/>
+      <c r="C125" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B126" s="2"/>
+      <c r="C126" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G126" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B127" s="2"/>
+      <c r="C127" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G127" s="27"/>
+    </row>
+    <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B128" s="2"/>
+      <c r="C128" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D128" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E128" s="41"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="42"/>
+    </row>
+    <row r="129" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="4"/>
+      <c r="C129" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D131" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="33"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="2"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B133" s="2"/>
+      <c r="C133" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B134" s="2"/>
+      <c r="C134" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G134" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B135" s="2"/>
+      <c r="C135" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G135" s="27"/>
+    </row>
+    <row r="136" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B136" s="2"/>
+      <c r="C136" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D136" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="42"/>
+    </row>
+    <row r="137" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="4"/>
+      <c r="C137" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D139" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="33"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="2"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="12"/>
+    </row>
+    <row r="141" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B141" s="2"/>
+      <c r="C141" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G141" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B142" s="2"/>
+      <c r="C142" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E142" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G142" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="2"/>
+      <c r="C143" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G143" s="27"/>
+    </row>
+    <row r="144" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="44"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="47"/>
+    </row>
+    <row r="145" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D145" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="33"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="2"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="12"/>
+    </row>
+    <row r="147" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B147" s="2"/>
+      <c r="C147" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B148" s="2"/>
+      <c r="C148" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G148" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+      <c r="C149" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G149" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="4"/>
+      <c r="C150" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D152" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32"/>
+      <c r="G152" s="33"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="2"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="12"/>
+    </row>
+    <row r="154" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B154" s="2"/>
+      <c r="C154" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G154" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+      <c r="C155" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G155" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="4"/>
+      <c r="C156" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D156" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="E156" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G156" s="36"/>
+    </row>
+    <row r="157" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D158" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="33"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="2"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="12"/>
+    </row>
+    <row r="160" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
+      <c r="C160" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B161" s="2"/>
+      <c r="C161" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D161" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E161" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G161" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="4"/>
+      <c r="C162" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D162" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E162" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G162" s="36"/>
+    </row>
+    <row r="163" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="164" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D164" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="33"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="12"/>
+    </row>
+    <row r="166" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B166" s="2"/>
+      <c r="C166" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G166" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B167" s="2"/>
+      <c r="C167" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D167" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E167" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G167" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="4"/>
+      <c r="C168" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D168" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E168" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G168" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D170" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="E170" s="32"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="33"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="2"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="12"/>
+    </row>
+    <row r="172" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B172" s="2"/>
+      <c r="C172" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B173" s="2"/>
+      <c r="C173" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E173" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G173" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B174" s="2"/>
+      <c r="C174" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E174" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F174" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G174" s="27"/>
+    </row>
+    <row r="175" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="4"/>
+      <c r="C175" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="19">
+    <mergeCell ref="D170:G170"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D152:G152"/>
+    <mergeCell ref="D158:G158"/>
+    <mergeCell ref="D164:G164"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="D131:G131"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D52:G52"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D15:E15"/>

--- a/Docs/Dicionário de dados.xlsx
+++ b/Docs/Dicionário de dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocaz\Desktop\projecto-final\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AA4113-5F1F-4AEC-AD1E-403AF4044AA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A768218A-A4B8-41BE-9DE9-438CADAAAD88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="8205" windowWidth="15375" windowHeight="7995" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,8 +666,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -688,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -776,148 +792,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,2440 +1311,2431 @@
   <dimension ref="B1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:G33"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="18"/>
+    </row>
+    <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="29" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="3" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="11"/>
+      <c r="C35" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="21"/>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="5" t="s">
+    <row r="37" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="3" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+      <c r="C41" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="22" t="s">
+    <row r="42" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+      <c r="C42" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="4"/>
-      <c r="C43" s="5" t="s">
+    <row r="43" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="15"/>
+      <c r="C43" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="27" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="34"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="28"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="3" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="11"/>
+      <c r="C47" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="22" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="22" t="s">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="C49" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G49" s="27"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
-      <c r="C50" s="5" t="s">
+      <c r="B50" s="15"/>
+      <c r="C50" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="35" t="s">
+      <c r="E50" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G50" s="36"/>
+      <c r="G50" s="27"/>
     </row>
     <row r="51" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="34"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-    </row>
-    <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="28"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="3" t="s">
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="11"/>
+      <c r="C54" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="28" t="s">
+      <c r="G54" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="3" t="s">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="C55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="21"/>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="3" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="11"/>
+      <c r="C57" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G57" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="3" t="s">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="C58" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="11" t="s">
+      <c r="E58" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="3" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="11"/>
+      <c r="C59" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="11" t="s">
+      <c r="E59" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G59" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="3" t="s">
+    <row r="60" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="11"/>
+      <c r="C60" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="11" t="s">
+      <c r="E60" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="3" t="s">
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="11"/>
+      <c r="C61" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="E61" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="3" t="s">
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="11"/>
+      <c r="C62" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="11" t="s">
+      <c r="E62" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="3" t="s">
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="11"/>
+      <c r="C63" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="11" t="s">
+      <c r="E63" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="3" t="s">
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="11"/>
+      <c r="C64" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="11" t="s">
+      <c r="E64" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="3" t="s">
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="11"/>
+      <c r="C65" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E65" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="11" t="s">
+      <c r="E65" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="3" t="s">
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="11"/>
+      <c r="C66" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="11" t="s">
+      <c r="E66" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="3" t="s">
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B67" s="11"/>
+      <c r="C67" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="9" t="s">
+      <c r="E67" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="3" t="s">
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="11"/>
+      <c r="C68" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="9" t="s">
+      <c r="E68" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="3" t="s">
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="11"/>
+      <c r="C69" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="9" t="s">
+      <c r="E69" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="2:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="2:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="21"/>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="24" t="s">
+      <c r="F70" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G70" s="27" t="s">
+      <c r="G70" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="3" t="s">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+      <c r="C71" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="9" t="s">
+      <c r="E71" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="27" t="s">
+      <c r="G71" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
-      <c r="C72" s="3" t="s">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="11"/>
+      <c r="C72" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="9" t="s">
+      <c r="E72" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="27" t="s">
+      <c r="G72" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="3" t="s">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="11"/>
+      <c r="C73" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="9" t="s">
+      <c r="E73" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G73" s="27" t="s">
+      <c r="G73" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
-      <c r="C74" s="3" t="s">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
+      <c r="C74" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="9" t="s">
+      <c r="E74" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="27" t="s">
+      <c r="G74" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
-      <c r="C75" s="3" t="s">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="11"/>
+      <c r="C75" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="9" t="s">
+      <c r="E75" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G75" s="12"/>
-    </row>
-    <row r="76" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
-      <c r="C76" s="3" t="s">
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="11"/>
+      <c r="C76" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="9" t="s">
+      <c r="E76" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="12"/>
+      <c r="G76" s="14"/>
     </row>
     <row r="77" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="4"/>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="15"/>
+      <c r="C77" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="D79" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="33"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="2"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
-      <c r="C81" s="3" t="s">
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="11"/>
+      <c r="C81" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="28" t="s">
+      <c r="G81" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="2"/>
-      <c r="C82" s="3" t="s">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="11"/>
+      <c r="C82" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="12" t="s">
+      <c r="G82" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="21"/>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E83" s="24" t="s">
+      <c r="E83" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F83" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G83" s="25"/>
-    </row>
-    <row r="84" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
-      <c r="C84" s="3" t="s">
+      <c r="G83" s="29"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="11"/>
+      <c r="C84" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="11" t="s">
+      <c r="E84" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G84" s="26"/>
-    </row>
-    <row r="85" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G84" s="32"/>
+    </row>
+    <row r="85" spans="2:7" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B85" s="21"/>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="D85" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="E85" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="37" t="s">
+      <c r="E85" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G85" s="25" t="s">
+      <c r="G85" s="29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
-      <c r="C86" s="3" t="s">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="11"/>
+      <c r="C86" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="G86" s="26"/>
-    </row>
-    <row r="87" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="2"/>
-      <c r="C87" s="3" t="s">
+      <c r="G86" s="32"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="11"/>
+      <c r="C87" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="39"/>
-    </row>
-    <row r="88" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
-      <c r="C88" s="3" t="s">
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="36"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="11"/>
+      <c r="C88" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G88" s="12"/>
-    </row>
-    <row r="89" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
-      <c r="C89" s="3" t="s">
+      <c r="G88" s="14"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="11"/>
+      <c r="C89" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="G89" s="12"/>
-    </row>
-    <row r="90" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
-      <c r="C90" s="3" t="s">
+      <c r="G89" s="14"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="11"/>
+      <c r="C90" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D90" s="40"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="39"/>
-    </row>
-    <row r="91" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
-      <c r="C91" s="3" t="s">
+      <c r="D90" s="37"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="36"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="11"/>
+      <c r="C91" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E91" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="38"/>
-      <c r="G91" s="39"/>
-    </row>
-    <row r="92" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="2"/>
-      <c r="C92" s="3" t="s">
+      <c r="E91" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="35"/>
+      <c r="G91" s="36"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="11"/>
+      <c r="C92" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="40"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="39"/>
-    </row>
-    <row r="93" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="2"/>
-      <c r="C93" s="3" t="s">
+      <c r="D92" s="37"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="36"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="11"/>
+      <c r="C93" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="11" t="s">
+      <c r="E93" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G93" s="12" t="s">
+      <c r="G93" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="2"/>
-      <c r="C94" s="3" t="s">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="11"/>
+      <c r="C94" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="D94" s="20" t="s">
+      <c r="D94" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E94" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="9" t="s">
+      <c r="E94" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G94" s="12"/>
-    </row>
-    <row r="95" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="2"/>
-      <c r="C95" s="3" t="s">
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="11"/>
+      <c r="C95" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G95" s="12"/>
-    </row>
-    <row r="96" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="2"/>
-      <c r="C96" s="3" t="s">
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="11"/>
+      <c r="C96" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D96" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="E96" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="9" t="s">
+      <c r="E96" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="12" t="s">
+      <c r="G96" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="21"/>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E97" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="24" t="s">
+      <c r="E97" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G97" s="27"/>
-    </row>
-    <row r="98" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="2"/>
-      <c r="C98" s="3" t="s">
+      <c r="G97" s="24"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="11"/>
+      <c r="C98" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="9" t="s">
+      <c r="E98" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G98" s="27"/>
-    </row>
-    <row r="99" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="2"/>
-      <c r="C99" s="3" t="s">
+      <c r="G98" s="24"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="11"/>
+      <c r="C99" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="E99" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="9" t="s">
+      <c r="E99" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G99" s="27"/>
-    </row>
-    <row r="100" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B100" s="2"/>
-      <c r="C100" s="3" t="s">
+      <c r="G99" s="24"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="11"/>
+      <c r="C100" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="9" t="s">
+      <c r="E100" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G100" s="27" t="s">
+      <c r="G100" s="24" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B101" s="2"/>
-      <c r="C101" s="3" t="s">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="11"/>
+      <c r="C101" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="9" t="s">
+      <c r="E101" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="27" t="s">
+      <c r="G101" s="24" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="2"/>
-      <c r="C102" s="3" t="s">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="11"/>
+      <c r="C102" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D102" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="9" t="s">
+      <c r="E102" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G102" s="27" t="s">
+      <c r="G102" s="24" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="2"/>
-      <c r="C103" s="3" t="s">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="11"/>
+      <c r="C103" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D103" s="23" t="s">
+      <c r="D103" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="9" t="s">
+      <c r="E103" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G103" s="12"/>
-    </row>
-    <row r="104" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="2"/>
-      <c r="C104" s="3" t="s">
+      <c r="G103" s="14"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="11"/>
+      <c r="C104" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="D104" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E104" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="9" t="s">
+      <c r="E104" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G104" s="12"/>
-    </row>
-    <row r="105" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="2"/>
-      <c r="C105" s="3" t="s">
+      <c r="G104" s="14"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="11"/>
+      <c r="C105" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="D105" s="17" t="s">
+      <c r="D105" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="9" t="s">
+      <c r="E105" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G105" s="12"/>
-    </row>
-    <row r="106" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="2"/>
-      <c r="C106" s="3" t="s">
+      <c r="G105" s="14"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="11"/>
+      <c r="C106" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="D106" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="9" t="s">
+      <c r="E106" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G106" s="12"/>
-    </row>
-    <row r="107" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="2"/>
-      <c r="C107" s="3" t="s">
+      <c r="G106" s="14"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="11"/>
+      <c r="C107" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D107" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E107" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="9" t="s">
+      <c r="E107" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="2"/>
-      <c r="C108" s="3" t="s">
+      <c r="G107" s="14"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="11"/>
+      <c r="C108" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="D108" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E108" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="9" t="s">
+      <c r="E108" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G108" s="12"/>
-    </row>
-    <row r="109" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B109" s="2"/>
-      <c r="C109" s="3" t="s">
+      <c r="G108" s="14"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="11"/>
+      <c r="C109" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="D109" s="40"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="39"/>
-    </row>
-    <row r="110" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="2"/>
-      <c r="C110" s="3" t="s">
+      <c r="D109" s="37"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="36"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="11"/>
+      <c r="C110" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D110" s="40"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="39"/>
-    </row>
-    <row r="111" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="2"/>
-      <c r="C111" s="3" t="s">
+      <c r="D110" s="37"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="36"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="11"/>
+      <c r="C111" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="D111" s="40"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="39"/>
-    </row>
-    <row r="112" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B112" s="2"/>
-      <c r="C112" s="3" t="s">
+      <c r="D111" s="37"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="36"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="11"/>
+      <c r="C112" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="D112" s="40"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="39"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="36"/>
     </row>
     <row r="113" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="4"/>
-      <c r="C113" s="5" t="s">
+      <c r="B113" s="15"/>
+      <c r="C113" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D113" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E113" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" s="10" t="s">
+      <c r="E113" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G113" s="18"/>
+    </row>
+    <row r="114" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D115" s="32" t="s">
+      <c r="D115" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="33"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="2"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="12"/>
-    </row>
-    <row r="117" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B117" s="2"/>
-      <c r="C117" s="3" t="s">
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="11"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="14"/>
+    </row>
+    <row r="117" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="11"/>
+      <c r="C117" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G117" s="28" t="s">
+      <c r="G117" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B118" s="2"/>
-      <c r="C118" s="22" t="s">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="11"/>
+      <c r="C118" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="D118" s="23" t="s">
+      <c r="D118" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E118" s="24" t="s">
+      <c r="E118" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F118" s="24" t="s">
+      <c r="F118" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G118" s="27" t="s">
+      <c r="G118" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B119" s="2"/>
-      <c r="C119" s="22" t="s">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="11"/>
+      <c r="C119" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D119" s="23" t="s">
+      <c r="D119" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E119" s="24" t="s">
+      <c r="E119" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F119" s="24" t="s">
+      <c r="F119" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G119" s="27"/>
-    </row>
-    <row r="120" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B120" s="2"/>
-      <c r="C120" s="3" t="s">
+      <c r="G119" s="24"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="11"/>
+      <c r="C120" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D120" s="17" t="s">
+      <c r="D120" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E120" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="24" t="s">
+      <c r="E120" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G120" s="27"/>
+      <c r="G120" s="24"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="4"/>
-      <c r="C121" s="5" t="s">
+      <c r="B121" s="15"/>
+      <c r="C121" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D121" s="18" t="s">
+      <c r="D121" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E121" s="10" t="s">
+      <c r="E121" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F121" s="10" t="s">
+      <c r="F121" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G121" s="13" t="s">
+      <c r="G121" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D123" s="32" t="s">
+      <c r="D123" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="33"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="2"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="12"/>
-    </row>
-    <row r="125" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B125" s="2"/>
-      <c r="C125" s="3" t="s">
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="11"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="14"/>
+    </row>
+    <row r="125" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="11"/>
+      <c r="C125" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G125" s="28" t="s">
+      <c r="G125" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B126" s="2"/>
-      <c r="C126" s="22" t="s">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="11"/>
+      <c r="C126" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="D126" s="23" t="s">
+      <c r="D126" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E126" s="24" t="s">
+      <c r="E126" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="24" t="s">
+      <c r="F126" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G126" s="27" t="s">
+      <c r="G126" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="2"/>
-      <c r="C127" s="22" t="s">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="11"/>
+      <c r="C127" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D127" s="23" t="s">
+      <c r="D127" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E127" s="24" t="s">
+      <c r="E127" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F127" s="24" t="s">
+      <c r="F127" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G127" s="27"/>
-    </row>
-    <row r="128" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="2"/>
-      <c r="C128" s="43" t="s">
+      <c r="G127" s="24"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="11"/>
+      <c r="C128" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D128" s="40" t="s">
+      <c r="D128" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="E128" s="41"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="42"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="38"/>
+      <c r="G128" s="39"/>
     </row>
     <row r="129" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="4"/>
-      <c r="C129" s="5" t="s">
+      <c r="B129" s="15"/>
+      <c r="C129" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D129" s="18" t="s">
+      <c r="D129" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E129" s="10" t="s">
+      <c r="E129" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F129" s="10" t="s">
+      <c r="F129" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G129" s="13" t="s">
+      <c r="G129" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D131" s="32" t="s">
+      <c r="D131" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E131" s="32"/>
-      <c r="F131" s="32"/>
-      <c r="G131" s="33"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="2"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="12"/>
-    </row>
-    <row r="133" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B133" s="2"/>
-      <c r="C133" s="3" t="s">
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="11"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="14"/>
+    </row>
+    <row r="133" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="11"/>
+      <c r="C133" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F133" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G133" s="28" t="s">
+      <c r="G133" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B134" s="2"/>
-      <c r="C134" s="22" t="s">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="11"/>
+      <c r="C134" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="D134" s="23" t="s">
+      <c r="D134" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E134" s="24" t="s">
+      <c r="E134" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F134" s="24" t="s">
+      <c r="F134" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G134" s="27" t="s">
+      <c r="G134" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B135" s="2"/>
-      <c r="C135" s="22" t="s">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="11"/>
+      <c r="C135" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D135" s="23" t="s">
+      <c r="D135" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E135" s="24" t="s">
+      <c r="E135" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F135" s="24" t="s">
+      <c r="F135" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G135" s="27"/>
-    </row>
-    <row r="136" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B136" s="2"/>
-      <c r="C136" s="43" t="s">
+      <c r="G135" s="24"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="11"/>
+      <c r="C136" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D136" s="40" t="s">
+      <c r="D136" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="E136" s="41"/>
-      <c r="F136" s="41"/>
-      <c r="G136" s="42"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="39"/>
     </row>
     <row r="137" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="4"/>
-      <c r="C137" s="5" t="s">
+      <c r="B137" s="15"/>
+      <c r="C137" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D137" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E137" s="10" t="s">
+      <c r="E137" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F137" s="10" t="s">
+      <c r="F137" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G137" s="13" t="s">
+      <c r="G137" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D139" s="32" t="s">
+      <c r="D139" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="33"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="2"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="12"/>
-    </row>
-    <row r="141" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B141" s="2"/>
-      <c r="C141" s="3" t="s">
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="11"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="14"/>
+    </row>
+    <row r="141" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="11"/>
+      <c r="C141" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F141" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G141" s="28" t="s">
+      <c r="G141" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B142" s="2"/>
-      <c r="C142" s="22" t="s">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="11"/>
+      <c r="C142" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="D142" s="23" t="s">
+      <c r="D142" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E142" s="24" t="s">
+      <c r="E142" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F142" s="24" t="s">
+      <c r="F142" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G142" s="27" t="s">
+      <c r="G142" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="143" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="2"/>
-      <c r="C143" s="22" t="s">
+      <c r="B143" s="11"/>
+      <c r="C143" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D143" s="23" t="s">
+      <c r="D143" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="E143" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F143" s="24" t="s">
+      <c r="E143" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="26" t="s">
         <v>44</v>
       </c>
       <c r="G143" s="27"/>
     </row>
     <row r="144" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="44"/>
-      <c r="C144" s="45"/>
-      <c r="D144" s="46"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="47"/>
-    </row>
-    <row r="145" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B144" s="40"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="41"/>
+      <c r="E144" s="42"/>
+      <c r="F144" s="42"/>
+      <c r="G144" s="42"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D145" s="32" t="s">
+      <c r="D145" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="33"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B146" s="2"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="12"/>
-    </row>
-    <row r="147" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B147" s="2"/>
-      <c r="C147" s="3" t="s">
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="11"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="14"/>
+    </row>
+    <row r="147" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="11"/>
+      <c r="C147" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F147" s="3" t="s">
+      <c r="F147" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G147" s="28" t="s">
+      <c r="G147" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B148" s="2"/>
-      <c r="C148" s="22" t="s">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="11"/>
+      <c r="C148" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E148" s="24" t="s">
+      <c r="E148" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F148" s="24" t="s">
+      <c r="F148" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G148" s="27" t="s">
+      <c r="G148" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B149" s="2"/>
-      <c r="C149" s="22" t="s">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="11"/>
+      <c r="C149" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="D149" s="23" t="s">
+      <c r="D149" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E149" s="24" t="s">
+      <c r="E149" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F149" s="24" t="s">
+      <c r="F149" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G149" s="27" t="s">
+      <c r="G149" s="24" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="4"/>
-      <c r="C150" s="5" t="s">
+      <c r="B150" s="15"/>
+      <c r="C150" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E150" s="10" t="s">
+      <c r="E150" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F150" s="10" t="s">
+      <c r="F150" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G150" s="13" t="s">
+      <c r="G150" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="151" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D152" s="32" t="s">
+      <c r="D152" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E152" s="32"/>
-      <c r="F152" s="32"/>
-      <c r="G152" s="33"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B153" s="2"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="12"/>
-    </row>
-    <row r="154" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B154" s="2"/>
-      <c r="C154" s="3" t="s">
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="10"/>
+    </row>
+    <row r="153" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="11"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="14"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="11"/>
+      <c r="C154" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F154" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G154" s="28" t="s">
+      <c r="G154" s="57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B155" s="2"/>
-      <c r="C155" s="22" t="s">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="11"/>
+      <c r="C155" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="D155" s="23" t="s">
+      <c r="D155" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E155" s="24" t="s">
+      <c r="E155" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F155" s="24" t="s">
+      <c r="F155" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G155" s="27" t="s">
+      <c r="G155" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="156" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="4"/>
-      <c r="C156" s="48" t="s">
+      <c r="B156" s="15"/>
+      <c r="C156" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D156" s="49" t="s">
+      <c r="D156" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="E156" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F156" s="35" t="s">
+      <c r="E156" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G156" s="36"/>
-    </row>
-    <row r="157" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G156" s="27"/>
+    </row>
+    <row r="157" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D158" s="32" t="s">
+      <c r="D158" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
-      <c r="G158" s="33"/>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B159" s="2"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="12"/>
-    </row>
-    <row r="160" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B160" s="2"/>
-      <c r="C160" s="3" t="s">
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="10"/>
+    </row>
+    <row r="159" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="11"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="14"/>
+    </row>
+    <row r="160" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="11"/>
+      <c r="C160" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F160" s="3" t="s">
+      <c r="F160" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G160" s="28" t="s">
+      <c r="G160" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="2"/>
-      <c r="C161" s="22" t="s">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="11"/>
+      <c r="C161" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D161" s="23" t="s">
+      <c r="D161" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="E161" s="24" t="s">
+      <c r="E161" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F161" s="24" t="s">
+      <c r="F161" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G161" s="27" t="s">
+      <c r="G161" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="162" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="4"/>
-      <c r="C162" s="48" t="s">
+      <c r="B162" s="15"/>
+      <c r="C162" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D162" s="49" t="s">
+      <c r="D162" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="E162" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" s="35" t="s">
+      <c r="E162" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G162" s="36"/>
-    </row>
-    <row r="163" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G162" s="27"/>
+    </row>
+    <row r="163" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D164" s="32" t="s">
+      <c r="D164" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E164" s="32"/>
-      <c r="F164" s="32"/>
-      <c r="G164" s="33"/>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B165" s="2"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="12"/>
-    </row>
-    <row r="166" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B166" s="2"/>
-      <c r="C166" s="3" t="s">
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="10"/>
+    </row>
+    <row r="165" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="11"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="14"/>
+    </row>
+    <row r="166" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="11"/>
+      <c r="C166" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F166" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G166" s="28" t="s">
+      <c r="G166" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B167" s="2"/>
-      <c r="C167" s="22" t="s">
+    <row r="167" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B167" s="11"/>
+      <c r="C167" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D167" s="23" t="s">
+      <c r="D167" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="E167" s="24" t="s">
+      <c r="E167" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F167" s="24" t="s">
+      <c r="F167" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G167" s="27" t="s">
+      <c r="G167" s="24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="4"/>
-      <c r="C168" s="48" t="s">
+    <row r="168" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="15"/>
+      <c r="C168" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D168" s="49" t="s">
+      <c r="D168" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="E168" s="35" t="s">
+      <c r="E168" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F168" s="35" t="s">
+      <c r="F168" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="G168" s="36" t="s">
+      <c r="G168" s="27" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D170" s="32" t="s">
+      <c r="D170" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E170" s="32"/>
-      <c r="F170" s="32"/>
-      <c r="G170" s="33"/>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B171" s="2"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="12"/>
-    </row>
-    <row r="172" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B172" s="2"/>
-      <c r="C172" s="3" t="s">
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="10"/>
+    </row>
+    <row r="171" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="11"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="14"/>
+    </row>
+    <row r="172" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="11"/>
+      <c r="C172" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F172" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G172" s="28" t="s">
+      <c r="G172" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B173" s="2"/>
-      <c r="C173" s="22" t="s">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="11"/>
+      <c r="C173" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D173" s="23" t="s">
+      <c r="D173" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E173" s="24" t="s">
+      <c r="E173" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F173" s="24" t="s">
+      <c r="F173" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G173" s="27" t="s">
+      <c r="G173" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B174" s="2"/>
-      <c r="C174" s="22" t="s">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="11"/>
+      <c r="C174" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D174" s="23" t="s">
+      <c r="D174" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="E174" s="24" t="s">
+      <c r="E174" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F174" s="24" t="s">
+      <c r="F174" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G174" s="27"/>
+      <c r="G174" s="24"/>
     </row>
     <row r="175" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="4"/>
-      <c r="C175" s="5" t="s">
+      <c r="B175" s="15"/>
+      <c r="C175" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D175" s="18" t="s">
+      <c r="D175" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E175" s="10" t="s">
+      <c r="E175" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F175" s="10" t="s">
+      <c r="F175" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G175" s="13" t="s">
+      <c r="G175" s="18" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D170:G170"/>
-    <mergeCell ref="D139:G139"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="D152:G152"/>
-    <mergeCell ref="D158:G158"/>
-    <mergeCell ref="D164:G164"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="D131:G131"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D52:G52"/>
@@ -3678,6 +3744,17 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="D170:G170"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D152:G152"/>
+    <mergeCell ref="D158:G158"/>
+    <mergeCell ref="D164:G164"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Docs/Dicionário de dados.xlsx
+++ b/Docs/Dicionário de dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocaz\Desktop\projecto-final\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45125225-A3B0-4F6B-BD83-626224F769F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B62C6B-91F0-4237-8DAE-2EAF19F48A9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
+    <workbookView xWindow="-9270" yWindow="135" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="231">
   <si>
     <t>Rubrica</t>
   </si>
@@ -719,6 +719,12 @@
   </si>
   <si>
     <t>Entidade: Nível de Permissão</t>
+  </si>
+  <si>
+    <t>Chave_API</t>
+  </si>
+  <si>
+    <t>Chave para acesso à API do Google Calendar</t>
   </si>
 </sst>
 </file>
@@ -909,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1001,6 +1007,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1011,49 +1050,19 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1372,45 +1381,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB70AEAC-8C8E-48A3-B572-692385E33AC1}">
-  <dimension ref="B1:G134"/>
+  <dimension ref="B1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G134" sqref="B130:G134"/>
+    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="31" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="15" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="16" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="15" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="15" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="36"/>
-    <col min="10" max="10" width="7" style="36" customWidth="1"/>
-    <col min="11" max="11" width="19" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="36"/>
+    <col min="8" max="9" width="9.140625" style="32"/>
+    <col min="10" max="10" width="7" style="32" customWidth="1"/>
+    <col min="11" max="11" width="19" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -1418,7 +1427,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1445,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1463,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="14" t="s">
         <v>94</v>
       </c>
@@ -1471,19 +1480,19 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
@@ -1491,7 +1500,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="17" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1518,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +1536,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="14" t="s">
         <v>94</v>
       </c>
@@ -1544,19 +1553,19 @@
     </row>
     <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
@@ -1564,7 +1573,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="17" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1591,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="13" t="s">
         <v>21</v>
       </c>
@@ -1600,7 +1609,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="14" t="s">
         <v>94</v>
       </c>
@@ -1617,19 +1626,19 @@
     </row>
     <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
@@ -1637,7 +1646,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="17" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1664,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="13" t="s">
         <v>209</v>
       </c>
@@ -1673,7 +1682,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="33"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="14" t="s">
         <v>94</v>
       </c>
@@ -1690,19 +1699,19 @@
     </row>
     <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
@@ -1710,7 +1719,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="32"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="17" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1737,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="13" t="s">
         <v>27</v>
       </c>
@@ -1746,7 +1755,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="14" t="s">
         <v>94</v>
       </c>
@@ -1763,19 +1772,19 @@
     </row>
     <row r="32" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
     </row>
     <row r="34" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="32"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
@@ -1783,7 +1792,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="32"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="17" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1810,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="32"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="13" t="s">
         <v>85</v>
       </c>
@@ -1819,7 +1828,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="32"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="13" t="s">
         <v>33</v>
       </c>
@@ -1835,7 +1844,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="33"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="14" t="s">
         <v>94</v>
       </c>
@@ -1851,7 +1860,7 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="39"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="22"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
@@ -1859,19 +1868,19 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="32"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -1879,7 +1888,7 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="32"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="17" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +1906,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="32"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="23" t="s">
         <v>31</v>
       </c>
@@ -1915,7 +1924,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B44" s="32"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="13" t="s">
         <v>78</v>
       </c>
@@ -1933,7 +1942,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="32"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="13" t="s">
         <v>33</v>
       </c>
@@ -1951,7 +1960,7 @@
       </c>
     </row>
     <row r="46" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="32"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="13" t="s">
         <v>36</v>
       </c>
@@ -1969,7 +1978,7 @@
       </c>
     </row>
     <row r="47" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="32"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="13" t="s">
         <v>40</v>
       </c>
@@ -1987,7 +1996,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="32"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="13" t="s">
         <v>42</v>
       </c>
@@ -2003,7 +2012,7 @@
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="32"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="13" t="s">
         <v>45</v>
       </c>
@@ -2019,7 +2028,7 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="32"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="13" t="s">
         <v>47</v>
       </c>
@@ -2035,7 +2044,7 @@
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B51" s="32"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="13" t="s">
         <v>49</v>
       </c>
@@ -2051,7 +2060,7 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B52" s="32"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="13" t="s">
         <v>1</v>
       </c>
@@ -2067,7 +2076,7 @@
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="32"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="13" t="s">
         <v>52</v>
       </c>
@@ -2083,7 +2092,7 @@
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B54" s="32"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="13" t="s">
         <v>54</v>
       </c>
@@ -2099,7 +2108,7 @@
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B55" s="32"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="13" t="s">
         <v>56</v>
       </c>
@@ -2115,7 +2124,7 @@
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B56" s="32"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="13" t="s">
         <v>58</v>
       </c>
@@ -2130,8 +2139,8 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="2:7" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="32"/>
+    <row r="57" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="43"/>
       <c r="C57" s="13" t="s">
         <v>60</v>
       </c>
@@ -2147,7 +2156,7 @@
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B58" s="32"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="13" t="s">
         <v>62</v>
       </c>
@@ -2165,7 +2174,7 @@
       </c>
     </row>
     <row r="59" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="32"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="13" t="s">
         <v>63</v>
       </c>
@@ -2176,14 +2185,14 @@
         <v>13</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="32"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="13" t="s">
         <v>64</v>
       </c>
@@ -2194,14 +2203,14 @@
         <v>13</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="32"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="13" t="s">
         <v>65</v>
       </c>
@@ -2212,14 +2221,14 @@
         <v>13</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B62" s="32"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="13" t="s">
         <v>66</v>
       </c>
@@ -2230,14 +2239,14 @@
         <v>13</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B63" s="32"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="13" t="s">
         <v>4</v>
       </c>
@@ -2253,7 +2262,7 @@
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="32"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="13" t="s">
         <v>75</v>
       </c>
@@ -2271,7 +2280,7 @@
       </c>
     </row>
     <row r="65" spans="2:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="33"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="14" t="s">
         <v>82</v>
       </c>
@@ -2290,19 +2299,19 @@
     </row>
     <row r="66" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="C67" s="37" t="s">
+      <c r="C67" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="38"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="46"/>
     </row>
     <row r="68" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="32"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="2"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
@@ -2310,7 +2319,7 @@
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="32"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="17" t="s">
         <v>0</v>
       </c>
@@ -2328,7 +2337,7 @@
       </c>
     </row>
     <row r="70" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B70" s="32"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="13" t="s">
         <v>152</v>
       </c>
@@ -2346,7 +2355,7 @@
       </c>
     </row>
     <row r="71" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B71" s="32"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="13" t="s">
         <v>33</v>
       </c>
@@ -2362,7 +2371,7 @@
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B72" s="32"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="13" t="s">
         <v>75</v>
       </c>
@@ -2378,7 +2387,7 @@
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="33"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="14" t="s">
         <v>83</v>
       </c>
@@ -2397,19 +2406,19 @@
     </row>
     <row r="74" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C75" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="38"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="46"/>
     </row>
     <row r="76" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="32"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
@@ -2417,7 +2426,7 @@
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="32"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="17" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2444,7 @@
       </c>
     </row>
     <row r="78" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B78" s="32"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="13" t="s">
         <v>157</v>
       </c>
@@ -2453,7 +2462,7 @@
       </c>
     </row>
     <row r="79" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B79" s="32"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="13" t="s">
         <v>33</v>
       </c>
@@ -2469,7 +2478,7 @@
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B80" s="32"/>
+      <c r="B80" s="43"/>
       <c r="C80" s="26" t="s">
         <v>75</v>
       </c>
@@ -2481,7 +2490,7 @@
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="2:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="33"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="14" t="s">
         <v>83</v>
       </c>
@@ -2500,19 +2509,19 @@
     </row>
     <row r="82" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="42"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="48"/>
     </row>
     <row r="84" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="32"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="2"/>
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
@@ -2520,7 +2529,7 @@
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="32"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="17" t="s">
         <v>0</v>
       </c>
@@ -2538,7 +2547,7 @@
       </c>
     </row>
     <row r="86" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B86" s="32"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="13" t="s">
         <v>163</v>
       </c>
@@ -2556,7 +2565,7 @@
       </c>
     </row>
     <row r="87" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B87" s="32"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="13" t="s">
         <v>33</v>
       </c>
@@ -2572,7 +2581,7 @@
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B88" s="32"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="26" t="s">
         <v>75</v>
       </c>
@@ -2586,7 +2595,7 @@
       </c>
     </row>
     <row r="89" spans="2:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="33"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="14" t="s">
         <v>83</v>
       </c>
@@ -2605,7 +2614,7 @@
     </row>
     <row r="90" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="40"/>
+      <c r="B91" s="34"/>
       <c r="C91" s="27"/>
       <c r="D91" s="28"/>
       <c r="E91" s="11"/>
@@ -2613,27 +2622,27 @@
       <c r="G91" s="11"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="38"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="46"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="32"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="49"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="50"/>
     </row>
     <row r="94" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="32"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="2"/>
       <c r="D94" s="1"/>
       <c r="E94" s="2"/>
@@ -2641,7 +2650,7 @@
       <c r="G94" s="3"/>
     </row>
     <row r="95" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="32"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="17" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +2668,7 @@
       </c>
     </row>
     <row r="96" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B96" s="32"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="13" t="s">
         <v>167</v>
       </c>
@@ -2677,7 +2686,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B97" s="32"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="13" t="s">
         <v>165</v>
       </c>
@@ -2695,7 +2704,7 @@
       </c>
     </row>
     <row r="98" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="33"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="14" t="s">
         <v>169</v>
       </c>
@@ -2714,19 +2723,19 @@
     </row>
     <row r="99" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="C100" s="37" t="s">
+      <c r="C100" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="38"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="46"/>
     </row>
     <row r="101" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="32"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="2"/>
       <c r="D101" s="1"/>
       <c r="E101" s="2"/>
@@ -2734,7 +2743,7 @@
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B102" s="32"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="23" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +2761,7 @@
       </c>
     </row>
     <row r="103" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B103" s="32"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="13" t="s">
         <v>169</v>
       </c>
@@ -2770,7 +2779,7 @@
       </c>
     </row>
     <row r="104" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="33"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="14" t="s">
         <v>94</v>
       </c>
@@ -2787,19 +2796,19 @@
     </row>
     <row r="106" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="42"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="48"/>
     </row>
     <row r="108" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="32"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="2"/>
       <c r="D108" s="1"/>
       <c r="E108" s="2"/>
@@ -2807,7 +2816,7 @@
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="32"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="17" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +2834,7 @@
       </c>
     </row>
     <row r="110" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B110" s="32"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="13" t="s">
         <v>173</v>
       </c>
@@ -2843,7 +2852,7 @@
       </c>
     </row>
     <row r="111" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="33"/>
+      <c r="B111" s="44"/>
       <c r="C111" s="14" t="s">
         <v>78</v>
       </c>
@@ -2862,19 +2871,19 @@
     </row>
     <row r="112" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="C113" s="37" t="s">
+      <c r="C113" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="38"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="46"/>
     </row>
     <row r="114" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="32"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="2"/>
       <c r="D114" s="1"/>
       <c r="E114" s="2"/>
@@ -2882,7 +2891,7 @@
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="32"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="17" t="s">
         <v>0</v>
       </c>
@@ -2900,7 +2909,7 @@
       </c>
     </row>
     <row r="116" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B116" s="32"/>
+      <c r="B116" s="43"/>
       <c r="C116" s="13" t="s">
         <v>78</v>
       </c>
@@ -2918,7 +2927,7 @@
       </c>
     </row>
     <row r="117" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B117" s="32"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="13" t="s">
         <v>33</v>
       </c>
@@ -2934,7 +2943,7 @@
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="33"/>
+      <c r="B118" s="44"/>
       <c r="C118" s="14" t="s">
         <v>83</v>
       </c>
@@ -2953,19 +2962,19 @@
     </row>
     <row r="119" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C120" s="37" t="s">
+      <c r="C120" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="38"/>
+      <c r="D120" s="45"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="46"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="32"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="2"/>
       <c r="D121" s="1"/>
       <c r="E121" s="2"/>
@@ -2973,7 +2982,7 @@
       <c r="G121" s="3"/>
     </row>
     <row r="122" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="32"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="17" t="s">
         <v>0</v>
       </c>
@@ -2991,7 +3000,7 @@
       </c>
     </row>
     <row r="123" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B123" s="32"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="13" t="s">
         <v>185</v>
       </c>
@@ -3009,7 +3018,7 @@
       </c>
     </row>
     <row r="124" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B124" s="32"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="13" t="s">
         <v>187</v>
       </c>
@@ -3027,7 +3036,7 @@
       </c>
     </row>
     <row r="125" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B125" s="32"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="13" t="s">
         <v>94</v>
       </c>
@@ -3043,7 +3052,7 @@
       <c r="G125" s="3"/>
     </row>
     <row r="126" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B126" s="32"/>
+      <c r="B126" s="43"/>
       <c r="C126" s="13" t="s">
         <v>192</v>
       </c>
@@ -3061,7 +3070,7 @@
       </c>
     </row>
     <row r="127" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B127" s="32"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="13" t="s">
         <v>195</v>
       </c>
@@ -3078,117 +3087,117 @@
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="33"/>
-      <c r="C128" s="14" t="s">
+    <row r="128" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B128" s="43"/>
+      <c r="C128" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D128" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="44"/>
+      <c r="C129" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="D129" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E129" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F129" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G129" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="129" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="31" t="s">
+    <row r="130" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="C130" s="37" t="s">
+      <c r="C131" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="38"/>
-    </row>
-    <row r="131" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="32"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="3"/>
-    </row>
-    <row r="132" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B132" s="32"/>
-      <c r="C132" s="23" t="s">
+      <c r="D131" s="45"/>
+      <c r="E131" s="45"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="46"/>
+    </row>
+    <row r="132" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="43"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B133" s="43"/>
+      <c r="C133" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D132" s="29" t="s">
+      <c r="D133" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E132" s="29" t="s">
+      <c r="E133" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F132" s="29" t="s">
+      <c r="F133" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G132" s="30" t="s">
+      <c r="G133" s="30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B133" s="32"/>
-      <c r="C133" s="13" t="s">
+    <row r="134" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B134" s="43"/>
+      <c r="C134" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G134" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="2:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="33"/>
-      <c r="C134" s="14" t="s">
+    <row r="135" spans="2:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="44"/>
+      <c r="C135" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="D135" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" s="4" t="s">
+      <c r="E135" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="G135" s="5" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B120:B128"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="B130:B134"/>
-    <mergeCell ref="C130:G130"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="B113:B118"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="C92:G93"/>
     <mergeCell ref="B40:B65"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="B67:B73"/>
@@ -3205,6 +3214,22 @@
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="C33:G33"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="C92:G93"/>
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="C113:G113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3215,42 +3240,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10D4318-FD04-489C-9B68-C6CBE0B6E747}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="43"/>
-    <col min="2" max="2" width="12.42578125" style="44"/>
-    <col min="3" max="3" width="29.28515625" style="43" customWidth="1"/>
-    <col min="4" max="16384" width="12.42578125" style="43"/>
+    <col min="1" max="1" width="12.42578125" style="36"/>
+    <col min="2" max="2" width="12.42578125" style="37"/>
+    <col min="3" max="3" width="29.28515625" style="36" customWidth="1"/>
+    <col min="4" max="16384" width="12.42578125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -3267,8 +3292,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="40" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3285,8 +3310,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="40" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3301,8 +3326,8 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="40" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -3317,8 +3342,8 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3335,8 +3360,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="40" t="s">
         <v>98</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3351,8 +3376,8 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -3363,8 +3388,8 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="40" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -3379,8 +3404,8 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="40" t="s">
         <v>104</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3395,8 +3420,8 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="40" t="s">
         <v>107</v>
       </c>
       <c r="C13" s="25"/>
@@ -3405,8 +3430,8 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="40" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -3419,8 +3444,8 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="47" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="40" t="s">
         <v>110</v>
       </c>
       <c r="C15" s="25"/>
@@ -3429,8 +3454,8 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="47" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="40" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3447,8 +3472,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="47" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="40" t="s">
         <v>114</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -3463,8 +3488,8 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="40" t="s">
         <v>116</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -3479,8 +3504,8 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="47" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3497,8 +3522,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="40" t="s">
         <v>119</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -3513,8 +3538,8 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="47" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="40" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3529,8 +3554,8 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="40" t="s">
         <v>123</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -3545,8 +3570,8 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="47" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="40" t="s">
         <v>126</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -3563,8 +3588,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="47" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="40" t="s">
         <v>130</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -3581,8 +3606,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="40" t="s">
         <v>127</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3599,8 +3624,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="40" t="s">
         <v>132</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3615,8 +3640,8 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="47" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="40" t="s">
         <v>134</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3631,8 +3656,8 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="40" t="s">
         <v>136</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3647,8 +3672,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="40" t="s">
         <v>142</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3663,8 +3688,8 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="47" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="40" t="s">
         <v>138</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3679,8 +3704,8 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="47" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="40" t="s">
         <v>140</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3695,8 +3720,8 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="47" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="40" t="s">
         <v>144</v>
       </c>
       <c r="C32" s="25"/>
@@ -3705,8 +3730,8 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="47" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="40" t="s">
         <v>145</v>
       </c>
       <c r="C33" s="25"/>
@@ -3715,8 +3740,8 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="47" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="40" t="s">
         <v>146</v>
       </c>
       <c r="C34" s="25"/>
@@ -3725,8 +3750,8 @@
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="47" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="40" t="s">
         <v>147</v>
       </c>
       <c r="C35" s="25"/>
@@ -3735,8 +3760,8 @@
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="44"/>
+      <c r="B36" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="12" t="s">

--- a/Docs/Dicionário de dados.xlsx
+++ b/Docs/Dicionário de dados.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocaz\Desktop\projecto-final\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B62C6B-91F0-4237-8DAE-2EAF19F48A9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5551DB0-F4A2-41C6-B9CB-ECCFB7E3D433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9270" yWindow="135" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
+    <workbookView xWindow="390" yWindow="840" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
     <sheet name="Folha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Processos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="241">
   <si>
     <t>Rubrica</t>
   </si>
@@ -725,13 +726,43 @@
   </si>
   <si>
     <t>Chave para acesso à API do Google Calendar</t>
+  </si>
+  <si>
+    <t>Destino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recebe </t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t>Envia</t>
+  </si>
+  <si>
+    <t>Para</t>
+  </si>
+  <si>
+    <t>Processo: Registar Candidatos</t>
+  </si>
+  <si>
+    <t>Fonte exterma</t>
+  </si>
+  <si>
+    <t>Dados e ficheiros dos candidatos</t>
+  </si>
+  <si>
+    <t>Dados e Ficheiros dos Candidatos</t>
+  </si>
+  <si>
+    <t>Entidade Candidato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +802,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -786,7 +825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -911,11 +950,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1067,6 +1121,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1383,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB70AEAC-8C8E-48A3-B572-692385E33AC1}">
   <dimension ref="B1:G135"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60:F62"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3198,6 +3274,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="C92:G93"/>
     <mergeCell ref="B40:B65"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="B67:B73"/>
@@ -3214,22 +3306,6 @@
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="C33:G33"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="C92:G93"/>
-    <mergeCell ref="B120:B129"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="B113:B118"/>
-    <mergeCell ref="C113:G113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3240,7 +3316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10D4318-FD04-489C-9B68-C6CBE0B6E747}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -3783,4 +3859,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAB80F2-A491-43C6-AC12-1BC9F78288A5}">
+  <dimension ref="B1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="B2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="60"/>
+    </row>
+    <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="57"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/Dicionário de dados.xlsx
+++ b/Docs/Dicionário de dados.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pocaz\Desktop\projecto-final\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5551DB0-F4A2-41C6-B9CB-ECCFB7E3D433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E779DB-7C4C-4CF4-AC3A-4EEA8273B8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="840" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
+    <workbookView xWindow="735" yWindow="1185" windowWidth="21600" windowHeight="11505" xr2:uid="{E92F487F-D945-4D71-8B77-8D0E69DF42A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
     <sheet name="Folha2" sheetId="2" r:id="rId2"/>
     <sheet name="Processos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="257">
   <si>
     <t>Rubrica</t>
   </si>
@@ -746,9 +746,6 @@
     <t>Processo: Registar Candidatos</t>
   </si>
   <si>
-    <t>Fonte exterma</t>
-  </si>
-  <si>
     <t>Dados e ficheiros dos candidatos</t>
   </si>
   <si>
@@ -756,13 +753,64 @@
   </si>
   <si>
     <t>Entidade Candidato</t>
+  </si>
+  <si>
+    <t>Processo: Marcar Entrevista</t>
+  </si>
+  <si>
+    <t>Dados da marcação</t>
+  </si>
+  <si>
+    <t>Dados do candidato</t>
+  </si>
+  <si>
+    <t>Resposta</t>
+  </si>
+  <si>
+    <t>Ficheiro disponibilidade</t>
+  </si>
+  <si>
+    <t>Entidade administrador</t>
+  </si>
+  <si>
+    <t>Ficheiro candidato</t>
+  </si>
+  <si>
+    <t>Entidade candidato</t>
+  </si>
+  <si>
+    <t>Entidade entrevistador</t>
+  </si>
+  <si>
+    <t>Dados da entrevista</t>
+  </si>
+  <si>
+    <t>Pedido de confirmação</t>
+  </si>
+  <si>
+    <t>Disponibilidade do entrevistador</t>
+  </si>
+  <si>
+    <t>Processo enviar e-mail</t>
+  </si>
+  <si>
+    <t>Entidade candidado</t>
+  </si>
+  <si>
+    <t>Fonte externa</t>
+  </si>
+  <si>
+    <t>Processo: Marcar Provas</t>
+  </si>
+  <si>
+    <t>Dados da prova</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,6 +857,29 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -969,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1094,55 +1165,117 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1459,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB70AEAC-8C8E-48A3-B572-692385E33AC1}">
   <dimension ref="B1:G135"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G6" sqref="B2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1483,19 +1616,19 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -1503,7 +1636,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1654,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
@@ -1539,7 +1672,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="14" t="s">
         <v>94</v>
       </c>
@@ -1556,19 +1689,19 @@
     </row>
     <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
@@ -1576,7 +1709,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="17" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1727,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1612,7 +1745,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="14" t="s">
         <v>94</v>
       </c>
@@ -1629,19 +1762,19 @@
     </row>
     <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="43"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
@@ -1649,7 +1782,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="17" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1800,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="43"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="13" t="s">
         <v>21</v>
       </c>
@@ -1685,7 +1818,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="14" t="s">
         <v>94</v>
       </c>
@@ -1702,19 +1835,19 @@
     </row>
     <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
@@ -1722,7 +1855,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="17" t="s">
         <v>0</v>
       </c>
@@ -1740,7 +1873,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="13" t="s">
         <v>209</v>
       </c>
@@ -1758,7 +1891,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="44"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="14" t="s">
         <v>94</v>
       </c>
@@ -1775,19 +1908,19 @@
     </row>
     <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
@@ -1795,7 +1928,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="43"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="17" t="s">
         <v>0</v>
       </c>
@@ -1813,7 +1946,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="13" t="s">
         <v>27</v>
       </c>
@@ -1831,7 +1964,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="14" t="s">
         <v>94</v>
       </c>
@@ -1848,19 +1981,19 @@
     </row>
     <row r="32" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
     </row>
     <row r="34" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="43"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
@@ -1868,7 +2001,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="43"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="17" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +2019,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="43"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="13" t="s">
         <v>85</v>
       </c>
@@ -1904,7 +2037,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="43"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="13" t="s">
         <v>33</v>
       </c>
@@ -1920,7 +2053,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="44"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="14" t="s">
         <v>94</v>
       </c>
@@ -1944,19 +2077,19 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="50"/>
     </row>
     <row r="41" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="43"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -1964,7 +2097,7 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="43"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="17" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +2115,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="43"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="23" t="s">
         <v>31</v>
       </c>
@@ -2000,7 +2133,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B44" s="43"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="13" t="s">
         <v>78</v>
       </c>
@@ -2018,7 +2151,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="43"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="13" t="s">
         <v>33</v>
       </c>
@@ -2036,7 +2169,7 @@
       </c>
     </row>
     <row r="46" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="43"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="13" t="s">
         <v>36</v>
       </c>
@@ -2054,7 +2187,7 @@
       </c>
     </row>
     <row r="47" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="43"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="13" t="s">
         <v>40</v>
       </c>
@@ -2072,7 +2205,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="43"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="13" t="s">
         <v>42</v>
       </c>
@@ -2088,7 +2221,7 @@
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="43"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="13" t="s">
         <v>45</v>
       </c>
@@ -2104,7 +2237,7 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="43"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="13" t="s">
         <v>47</v>
       </c>
@@ -2120,7 +2253,7 @@
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B51" s="43"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="13" t="s">
         <v>49</v>
       </c>
@@ -2136,7 +2269,7 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B52" s="43"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="13" t="s">
         <v>1</v>
       </c>
@@ -2152,7 +2285,7 @@
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="43"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="13" t="s">
         <v>52</v>
       </c>
@@ -2168,7 +2301,7 @@
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B54" s="43"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="13" t="s">
         <v>54</v>
       </c>
@@ -2184,7 +2317,7 @@
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B55" s="43"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="13" t="s">
         <v>56</v>
       </c>
@@ -2200,7 +2333,7 @@
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B56" s="43"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="13" t="s">
         <v>58</v>
       </c>
@@ -2216,7 +2349,7 @@
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="43"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="13" t="s">
         <v>60</v>
       </c>
@@ -2232,7 +2365,7 @@
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B58" s="43"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="13" t="s">
         <v>62</v>
       </c>
@@ -2250,7 +2383,7 @@
       </c>
     </row>
     <row r="59" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="43"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="13" t="s">
         <v>63</v>
       </c>
@@ -2268,7 +2401,7 @@
       </c>
     </row>
     <row r="60" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="43"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="13" t="s">
         <v>64</v>
       </c>
@@ -2286,7 +2419,7 @@
       </c>
     </row>
     <row r="61" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="43"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="13" t="s">
         <v>65</v>
       </c>
@@ -2304,7 +2437,7 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B62" s="43"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="13" t="s">
         <v>66</v>
       </c>
@@ -2322,7 +2455,7 @@
       </c>
     </row>
     <row r="63" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B63" s="43"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="13" t="s">
         <v>4</v>
       </c>
@@ -2338,7 +2471,7 @@
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="43"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="13" t="s">
         <v>75</v>
       </c>
@@ -2356,7 +2489,7 @@
       </c>
     </row>
     <row r="65" spans="2:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="44"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="14" t="s">
         <v>82</v>
       </c>
@@ -2375,19 +2508,19 @@
     </row>
     <row r="66" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="C67" s="45" t="s">
+      <c r="C67" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="46"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="50"/>
     </row>
     <row r="68" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="43"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="2"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
@@ -2395,7 +2528,7 @@
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="43"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="17" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2546,7 @@
       </c>
     </row>
     <row r="70" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B70" s="43"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="13" t="s">
         <v>152</v>
       </c>
@@ -2431,7 +2564,7 @@
       </c>
     </row>
     <row r="71" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B71" s="43"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="13" t="s">
         <v>33</v>
       </c>
@@ -2447,7 +2580,7 @@
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B72" s="43"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="13" t="s">
         <v>75</v>
       </c>
@@ -2463,7 +2596,7 @@
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="44"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="14" t="s">
         <v>83</v>
       </c>
@@ -2482,19 +2615,19 @@
     </row>
     <row r="74" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="C75" s="45" t="s">
+      <c r="C75" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="46"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="50"/>
     </row>
     <row r="76" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="43"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
@@ -2502,7 +2635,7 @@
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="43"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="17" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2653,7 @@
       </c>
     </row>
     <row r="78" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B78" s="43"/>
+      <c r="B78" s="47"/>
       <c r="C78" s="13" t="s">
         <v>157</v>
       </c>
@@ -2538,7 +2671,7 @@
       </c>
     </row>
     <row r="79" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B79" s="43"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="13" t="s">
         <v>33</v>
       </c>
@@ -2554,7 +2687,7 @@
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B80" s="43"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="26" t="s">
         <v>75</v>
       </c>
@@ -2566,7 +2699,7 @@
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="2:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="44"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="14" t="s">
         <v>83</v>
       </c>
@@ -2585,19 +2718,19 @@
     </row>
     <row r="82" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="48"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="52"/>
     </row>
     <row r="84" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="43"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="2"/>
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
@@ -2605,7 +2738,7 @@
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="43"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="17" t="s">
         <v>0</v>
       </c>
@@ -2623,7 +2756,7 @@
       </c>
     </row>
     <row r="86" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B86" s="43"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="13" t="s">
         <v>163</v>
       </c>
@@ -2641,7 +2774,7 @@
       </c>
     </row>
     <row r="87" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B87" s="43"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="13" t="s">
         <v>33</v>
       </c>
@@ -2657,7 +2790,7 @@
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B88" s="43"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="26" t="s">
         <v>75</v>
       </c>
@@ -2671,7 +2804,7 @@
       </c>
     </row>
     <row r="89" spans="2:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="44"/>
+      <c r="B89" s="48"/>
       <c r="C89" s="14" t="s">
         <v>83</v>
       </c>
@@ -2698,27 +2831,27 @@
       <c r="G91" s="11"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C92" s="45" t="s">
+      <c r="C92" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="46"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="50"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="43"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="50"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="54"/>
     </row>
     <row r="94" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="43"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="2"/>
       <c r="D94" s="1"/>
       <c r="E94" s="2"/>
@@ -2726,7 +2859,7 @@
       <c r="G94" s="3"/>
     </row>
     <row r="95" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="43"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="17" t="s">
         <v>0</v>
       </c>
@@ -2744,7 +2877,7 @@
       </c>
     </row>
     <row r="96" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B96" s="43"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="13" t="s">
         <v>167</v>
       </c>
@@ -2762,7 +2895,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="B97" s="43"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="13" t="s">
         <v>165</v>
       </c>
@@ -2780,7 +2913,7 @@
       </c>
     </row>
     <row r="98" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="44"/>
+      <c r="B98" s="48"/>
       <c r="C98" s="14" t="s">
         <v>169</v>
       </c>
@@ -2799,19 +2932,19 @@
     </row>
     <row r="99" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="C100" s="45" t="s">
+      <c r="C100" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="46"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="50"/>
     </row>
     <row r="101" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="43"/>
+      <c r="B101" s="47"/>
       <c r="C101" s="2"/>
       <c r="D101" s="1"/>
       <c r="E101" s="2"/>
@@ -2819,7 +2952,7 @@
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B102" s="43"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="23" t="s">
         <v>0</v>
       </c>
@@ -2837,7 +2970,7 @@
       </c>
     </row>
     <row r="103" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B103" s="43"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="13" t="s">
         <v>169</v>
       </c>
@@ -2855,7 +2988,7 @@
       </c>
     </row>
     <row r="104" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="44"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="14" t="s">
         <v>94</v>
       </c>
@@ -2872,19 +3005,19 @@
     </row>
     <row r="106" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="42" t="s">
+      <c r="B107" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="C107" s="47" t="s">
+      <c r="C107" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="48"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="52"/>
     </row>
     <row r="108" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="43"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="2"/>
       <c r="D108" s="1"/>
       <c r="E108" s="2"/>
@@ -2892,7 +3025,7 @@
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="43"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="17" t="s">
         <v>0</v>
       </c>
@@ -2910,7 +3043,7 @@
       </c>
     </row>
     <row r="110" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B110" s="43"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="13" t="s">
         <v>173</v>
       </c>
@@ -2928,7 +3061,7 @@
       </c>
     </row>
     <row r="111" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="44"/>
+      <c r="B111" s="48"/>
       <c r="C111" s="14" t="s">
         <v>78</v>
       </c>
@@ -2947,19 +3080,19 @@
     </row>
     <row r="112" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="C113" s="45" t="s">
+      <c r="C113" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D113" s="45"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="46"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="50"/>
     </row>
     <row r="114" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="43"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="2"/>
       <c r="D114" s="1"/>
       <c r="E114" s="2"/>
@@ -2967,7 +3100,7 @@
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="43"/>
+      <c r="B115" s="47"/>
       <c r="C115" s="17" t="s">
         <v>0</v>
       </c>
@@ -2985,7 +3118,7 @@
       </c>
     </row>
     <row r="116" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B116" s="43"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="13" t="s">
         <v>78</v>
       </c>
@@ -3003,7 +3136,7 @@
       </c>
     </row>
     <row r="117" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B117" s="43"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="13" t="s">
         <v>33</v>
       </c>
@@ -3019,7 +3152,7 @@
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="44"/>
+      <c r="B118" s="48"/>
       <c r="C118" s="14" t="s">
         <v>83</v>
       </c>
@@ -3038,19 +3171,19 @@
     </row>
     <row r="119" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="C120" s="45" t="s">
+      <c r="C120" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="D120" s="45"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="46"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="49"/>
+      <c r="G120" s="50"/>
     </row>
     <row r="121" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="43"/>
+      <c r="B121" s="47"/>
       <c r="C121" s="2"/>
       <c r="D121" s="1"/>
       <c r="E121" s="2"/>
@@ -3058,7 +3191,7 @@
       <c r="G121" s="3"/>
     </row>
     <row r="122" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="43"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="17" t="s">
         <v>0</v>
       </c>
@@ -3076,7 +3209,7 @@
       </c>
     </row>
     <row r="123" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B123" s="43"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="13" t="s">
         <v>185</v>
       </c>
@@ -3094,7 +3227,7 @@
       </c>
     </row>
     <row r="124" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B124" s="43"/>
+      <c r="B124" s="47"/>
       <c r="C124" s="13" t="s">
         <v>187</v>
       </c>
@@ -3112,7 +3245,7 @@
       </c>
     </row>
     <row r="125" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B125" s="43"/>
+      <c r="B125" s="47"/>
       <c r="C125" s="13" t="s">
         <v>94</v>
       </c>
@@ -3128,7 +3261,7 @@
       <c r="G125" s="3"/>
     </row>
     <row r="126" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B126" s="43"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="13" t="s">
         <v>192</v>
       </c>
@@ -3146,7 +3279,7 @@
       </c>
     </row>
     <row r="127" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B127" s="43"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="13" t="s">
         <v>195</v>
       </c>
@@ -3164,7 +3297,7 @@
       </c>
     </row>
     <row r="128" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B128" s="43"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="13" t="s">
         <v>229</v>
       </c>
@@ -3180,7 +3313,7 @@
       <c r="G128" s="3"/>
     </row>
     <row r="129" spans="2:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="44"/>
+      <c r="B129" s="48"/>
       <c r="C129" s="14" t="s">
         <v>199</v>
       </c>
@@ -3199,19 +3332,19 @@
     </row>
     <row r="130" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="42" t="s">
+      <c r="B131" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C131" s="45" t="s">
+      <c r="C131" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="D131" s="45"/>
-      <c r="E131" s="45"/>
-      <c r="F131" s="45"/>
-      <c r="G131" s="46"/>
+      <c r="D131" s="49"/>
+      <c r="E131" s="49"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="50"/>
     </row>
     <row r="132" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="43"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="2"/>
       <c r="D132" s="1"/>
       <c r="E132" s="2"/>
@@ -3219,7 +3352,7 @@
       <c r="G132" s="3"/>
     </row>
     <row r="133" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B133" s="43"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="23" t="s">
         <v>0</v>
       </c>
@@ -3237,7 +3370,7 @@
       </c>
     </row>
     <row r="134" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B134" s="43"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="13" t="s">
         <v>199</v>
       </c>
@@ -3255,7 +3388,7 @@
       </c>
     </row>
     <row r="135" spans="2:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="44"/>
+      <c r="B135" s="48"/>
       <c r="C135" s="14" t="s">
         <v>94</v>
       </c>
@@ -3274,22 +3407,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B120:B129"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="B113:B118"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="C92:G93"/>
     <mergeCell ref="B40:B65"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="B67:B73"/>
@@ -3306,6 +3423,22 @@
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="C33:G33"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="C92:G93"/>
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="C113:G113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3330,19 +3463,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="38"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -3350,7 +3483,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
@@ -3368,7 +3501,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="40" t="s">
         <v>83</v>
       </c>
@@ -3386,7 +3519,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="40" t="s">
         <v>93</v>
       </c>
@@ -3402,7 +3535,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="40" t="s">
         <v>94</v>
       </c>
@@ -3418,7 +3551,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="40" t="s">
         <v>5</v>
       </c>
@@ -3436,7 +3569,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="40" t="s">
         <v>98</v>
       </c>
@@ -3452,7 +3585,7 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="40" t="s">
         <v>100</v>
       </c>
@@ -3464,7 +3597,7 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="40" t="s">
         <v>102</v>
       </c>
@@ -3480,7 +3613,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="40" t="s">
         <v>104</v>
       </c>
@@ -3496,7 +3629,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="40" t="s">
         <v>107</v>
       </c>
@@ -3506,7 +3639,7 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="40" t="s">
         <v>108</v>
       </c>
@@ -3520,7 +3653,7 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="40" t="s">
         <v>110</v>
       </c>
@@ -3530,7 +3663,7 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="40" t="s">
         <v>111</v>
       </c>
@@ -3548,7 +3681,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="40" t="s">
         <v>114</v>
       </c>
@@ -3564,7 +3697,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="40" t="s">
         <v>116</v>
       </c>
@@ -3580,7 +3713,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="40" t="s">
         <v>25</v>
       </c>
@@ -3598,7 +3731,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="40" t="s">
         <v>119</v>
       </c>
@@ -3614,7 +3747,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="40" t="s">
         <v>121</v>
       </c>
@@ -3630,7 +3763,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="40" t="s">
         <v>123</v>
       </c>
@@ -3646,7 +3779,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="40" t="s">
         <v>126</v>
       </c>
@@ -3664,7 +3797,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="40" t="s">
         <v>130</v>
       </c>
@@ -3682,7 +3815,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="40" t="s">
         <v>127</v>
       </c>
@@ -3700,7 +3833,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="40" t="s">
         <v>132</v>
       </c>
@@ -3716,7 +3849,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="40" t="s">
         <v>134</v>
       </c>
@@ -3732,7 +3865,7 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="40" t="s">
         <v>136</v>
       </c>
@@ -3748,7 +3881,7 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="40" t="s">
         <v>142</v>
       </c>
@@ -3764,7 +3897,7 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="40" t="s">
         <v>138</v>
       </c>
@@ -3780,7 +3913,7 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="40" t="s">
         <v>140</v>
       </c>
@@ -3796,7 +3929,7 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="40" t="s">
         <v>144</v>
       </c>
@@ -3806,7 +3939,7 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="40" t="s">
         <v>145</v>
       </c>
@@ -3816,7 +3949,7 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="40" t="s">
         <v>146</v>
       </c>
@@ -3826,7 +3959,7 @@
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="40" t="s">
         <v>147</v>
       </c>
@@ -3836,7 +3969,7 @@
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="41" t="s">
         <v>4</v>
       </c>
@@ -3863,78 +3996,331 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAB80F2-A491-43C6-AC12-1BC9F78288A5}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="B2:E6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="B20:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="60"/>
-    </row>
-    <row r="4" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="45"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="57"/>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="E4" s="55"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="43" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="58" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:11" s="36" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="58" t="s">
+      <c r="E6" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="42"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+    </row>
+    <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="56" t="s">
         <v>240</v>
       </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+    </row>
+    <row r="10" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="36" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="55"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="63"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="64"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>253</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
